--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3527,28 +3527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.1075116900316</v>
+        <v>145.6801076537827</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.4444903935062</v>
+        <v>199.3259502445749</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.8497881524863</v>
+        <v>180.3025613090174</v>
       </c>
       <c r="AD2" t="n">
-        <v>104107.5116900316</v>
+        <v>145680.1076537827</v>
       </c>
       <c r="AE2" t="n">
-        <v>142444.4903935062</v>
+        <v>199325.9502445749</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.037057024069888e-06</v>
+        <v>5.134295586422153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.675347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>128849.7881524863</v>
+        <v>180302.5613090174</v>
       </c>
     </row>
     <row r="3">
@@ -3633,28 +3633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.61563838934764</v>
+        <v>116.8590910030897</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.1430935396496</v>
+        <v>159.8917637695993</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.9631211036202</v>
+        <v>144.6319182449726</v>
       </c>
       <c r="AD3" t="n">
-        <v>85615.63838934763</v>
+        <v>116859.0910030897</v>
       </c>
       <c r="AE3" t="n">
-        <v>117143.0935396496</v>
+        <v>159891.7637695993</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.632755659968313e-06</v>
+        <v>6.141353686711743e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.581597222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>105963.1211036202</v>
+        <v>144631.9182449727</v>
       </c>
     </row>
     <row r="4">
@@ -3739,28 +3739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.896552346606</v>
+        <v>114.9694127597558</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.790964175248</v>
+        <v>157.3062226303509</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.8354756645221</v>
+        <v>142.2931375232235</v>
       </c>
       <c r="AD4" t="n">
-        <v>83896.552346606</v>
+        <v>114969.4127597558</v>
       </c>
       <c r="AE4" t="n">
-        <v>114790.964175248</v>
+        <v>157306.2226303509</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.797243269669194e-06</v>
+        <v>6.419428152161401e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.338541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>103835.4756645221</v>
+        <v>142293.1375232235</v>
       </c>
     </row>
     <row r="5">
@@ -3845,28 +3845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.57579112892797</v>
+        <v>103.4048490466404</v>
       </c>
       <c r="AB5" t="n">
-        <v>112.9838404093493</v>
+        <v>141.4830763655308</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.200821254526</v>
+        <v>127.9801301299875</v>
       </c>
       <c r="AD5" t="n">
-        <v>82575.79112892797</v>
+        <v>103404.8490466404</v>
       </c>
       <c r="AE5" t="n">
-        <v>112983.8404093493</v>
+        <v>141483.0763655308</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.920556458550955e-06</v>
+        <v>6.627895216297992e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.164930555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>102200.821254526</v>
+        <v>127980.1301299875</v>
       </c>
     </row>
     <row r="6">
@@ -3951,28 +3951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>81.75283200607842</v>
+        <v>102.5818899237908</v>
       </c>
       <c r="AB6" t="n">
-        <v>111.857831431073</v>
+        <v>140.3570673872545</v>
       </c>
       <c r="AC6" t="n">
-        <v>101.1822769927725</v>
+        <v>126.961585868234</v>
       </c>
       <c r="AD6" t="n">
-        <v>81752.83200607842</v>
+        <v>102581.8899237908</v>
       </c>
       <c r="AE6" t="n">
-        <v>111857.831431073</v>
+        <v>140357.0673872545</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.000641173874315e-06</v>
+        <v>6.763282401051473e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.060763888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>101182.2769927725</v>
+        <v>126961.585868234</v>
       </c>
     </row>
     <row r="7">
@@ -4057,28 +4057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>81.17130587088167</v>
+        <v>102.0003637885941</v>
       </c>
       <c r="AB7" t="n">
-        <v>111.0621617177747</v>
+        <v>139.5613976739563</v>
       </c>
       <c r="AC7" t="n">
-        <v>100.4625448801818</v>
+        <v>126.2418537556433</v>
       </c>
       <c r="AD7" t="n">
-        <v>81171.30587088167</v>
+        <v>102000.3637885941</v>
       </c>
       <c r="AE7" t="n">
-        <v>111062.1617177747</v>
+        <v>139561.3976739563</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.041815594693437e-06</v>
+        <v>6.83288980236454e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.017361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>100462.5448801818</v>
+        <v>126241.8537556433</v>
       </c>
     </row>
     <row r="8">
@@ -4163,28 +4163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>70.08442426274651</v>
+        <v>101.2425360219169</v>
       </c>
       <c r="AB8" t="n">
-        <v>95.89260118283555</v>
+        <v>138.5245042905877</v>
       </c>
       <c r="AC8" t="n">
-        <v>86.7407459120804</v>
+        <v>125.303920021494</v>
       </c>
       <c r="AD8" t="n">
-        <v>70084.42426274651</v>
+        <v>101242.536021917</v>
       </c>
       <c r="AE8" t="n">
-        <v>95892.60118283555</v>
+        <v>138524.5042905877</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.084250456966206e-06</v>
+        <v>6.904628042493317e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.965277777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>86740.7459120804</v>
+        <v>125303.920021494</v>
       </c>
     </row>
     <row r="9">
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>69.70061303076129</v>
+        <v>100.8587247899317</v>
       </c>
       <c r="AB9" t="n">
-        <v>95.36745372267713</v>
+        <v>137.9993568304292</v>
       </c>
       <c r="AC9" t="n">
-        <v>86.26571778847023</v>
+        <v>124.8288918978839</v>
       </c>
       <c r="AD9" t="n">
-        <v>69700.61303076129</v>
+        <v>100858.7247899317</v>
       </c>
       <c r="AE9" t="n">
-        <v>95367.45372267712</v>
+        <v>137999.3568304292</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.088615319037167e-06</v>
+        <v>6.912007058392152e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.956597222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>86265.71778847023</v>
+        <v>124828.8918978839</v>
       </c>
     </row>
     <row r="10">
@@ -4375,28 +4375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>69.32873608623258</v>
+        <v>100.486847845403</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.85863528112029</v>
+        <v>137.4905383888724</v>
       </c>
       <c r="AC10" t="n">
-        <v>85.80546026484424</v>
+        <v>124.3686343742579</v>
       </c>
       <c r="AD10" t="n">
-        <v>69328.73608623259</v>
+        <v>100486.847845403</v>
       </c>
       <c r="AE10" t="n">
-        <v>94858.63528112028</v>
+        <v>137490.5383888724</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.125564926835734e-06</v>
+        <v>6.974472203674798e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.913194444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>85805.46026484424</v>
+        <v>124368.6343742579</v>
       </c>
     </row>
     <row r="11">
@@ -4481,28 +4481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>68.83134040167657</v>
+        <v>99.98945216084701</v>
       </c>
       <c r="AB11" t="n">
-        <v>94.17807656196219</v>
+        <v>136.8099796697143</v>
       </c>
       <c r="AC11" t="n">
-        <v>85.18985311467222</v>
+        <v>123.7530272240859</v>
       </c>
       <c r="AD11" t="n">
-        <v>68831.34040167657</v>
+        <v>99989.45216084701</v>
       </c>
       <c r="AE11" t="n">
-        <v>94178.07656196218</v>
+        <v>136809.9796697143</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.132870818965203e-06</v>
+        <v>6.986823176810279e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.904513888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>85189.85311467222</v>
+        <v>123753.0272240859</v>
       </c>
     </row>
     <row r="12">
@@ -4587,28 +4587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>68.48952615285903</v>
+        <v>99.64763791202947</v>
       </c>
       <c r="AB12" t="n">
-        <v>93.71039122694988</v>
+        <v>136.342294334702</v>
       </c>
       <c r="AC12" t="n">
-        <v>84.76680301163285</v>
+        <v>123.3299771210465</v>
       </c>
       <c r="AD12" t="n">
-        <v>68489.52615285903</v>
+        <v>99647.63791202947</v>
       </c>
       <c r="AE12" t="n">
-        <v>93710.39122694988</v>
+        <v>136342.294334702</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.13305755103241e-06</v>
+        <v>6.987138856634828e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.904513888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>84766.80301163284</v>
+        <v>123329.9771210465</v>
       </c>
     </row>
   </sheetData>
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.04644694978786</v>
+        <v>125.2328991353473</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.0467418699473</v>
+        <v>171.3491774824904</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.6352633476625</v>
+        <v>154.9958524736902</v>
       </c>
       <c r="AD2" t="n">
-        <v>95046.44694978786</v>
+        <v>125232.8991353473</v>
       </c>
       <c r="AE2" t="n">
-        <v>130046.7418699472</v>
+        <v>171349.1774824904</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.491747701387884e-06</v>
+        <v>6.046977269663304e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.006944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>117635.2633476625</v>
+        <v>154995.8524736902</v>
       </c>
     </row>
     <row r="3">
@@ -4990,28 +4990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.75293246459427</v>
+        <v>99.93415766086531</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.1214806490749</v>
+        <v>136.7343232954182</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.707079688915</v>
+        <v>123.6845913879681</v>
       </c>
       <c r="AD3" t="n">
-        <v>79752.93246459427</v>
+        <v>99934.15766086531</v>
       </c>
       <c r="AE3" t="n">
-        <v>109121.4806490749</v>
+        <v>136734.3232954182</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.011041553456235e-06</v>
+        <v>6.94628569291653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.225694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>98707.07968891501</v>
+        <v>123684.5913879681</v>
       </c>
     </row>
     <row r="4">
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.86248906727307</v>
+        <v>98.04885174428144</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.85245142352771</v>
+        <v>134.1547645665225</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.99074377892296</v>
+        <v>121.351222123724</v>
       </c>
       <c r="AD4" t="n">
-        <v>67862.48906727307</v>
+        <v>98048.85174428143</v>
       </c>
       <c r="AE4" t="n">
-        <v>92852.45142352772</v>
+        <v>134154.7645665225</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.206289860339182e-06</v>
+        <v>7.284414955002718e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.982638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>83990.74377892296</v>
+        <v>121351.222123724</v>
       </c>
     </row>
     <row r="5">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.07267478375476</v>
+        <v>97.25903746076314</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.77179267667151</v>
+        <v>133.0741058196663</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.0132215861523</v>
+        <v>120.3736999309534</v>
       </c>
       <c r="AD5" t="n">
-        <v>67072.67478375476</v>
+        <v>97259.03746076314</v>
       </c>
       <c r="AE5" t="n">
-        <v>91771.79267667151</v>
+        <v>133074.1058196663</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.276869974242083e-06</v>
+        <v>7.406644961566894e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.904513888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>83013.2215861523</v>
+        <v>120373.6999309534</v>
       </c>
     </row>
     <row r="6">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>66.26714217387999</v>
+        <v>96.45350485088836</v>
       </c>
       <c r="AB6" t="n">
-        <v>90.66962742225076</v>
+        <v>131.9719405652455</v>
       </c>
       <c r="AC6" t="n">
-        <v>82.01624543671446</v>
+        <v>119.3767237815155</v>
       </c>
       <c r="AD6" t="n">
-        <v>66267.14217387998</v>
+        <v>96453.50485088836</v>
       </c>
       <c r="AE6" t="n">
-        <v>90669.62742225075</v>
+        <v>131971.9405652455</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.363604072476507e-06</v>
+        <v>7.556850292931424e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.800347222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>82016.24543671445</v>
+        <v>119376.7237815155</v>
       </c>
     </row>
     <row r="7">
@@ -5414,28 +5414,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>65.79324305423059</v>
+        <v>95.97960573123896</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.02121773979316</v>
+        <v>131.3235308827879</v>
       </c>
       <c r="AC7" t="n">
-        <v>81.42971906430169</v>
+        <v>118.7901974091028</v>
       </c>
       <c r="AD7" t="n">
-        <v>65793.24305423058</v>
+        <v>95979.60573123896</v>
       </c>
       <c r="AE7" t="n">
-        <v>90021.21773979315</v>
+        <v>131323.5308827879</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.397602293610713e-06</v>
+        <v>7.615728106562064e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>81429.71906430169</v>
+        <v>118790.1974091028</v>
       </c>
     </row>
     <row r="8">
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>64.9659361413805</v>
+        <v>95.15229881838887</v>
       </c>
       <c r="AB8" t="n">
-        <v>88.88925992342716</v>
+        <v>130.1915730664219</v>
       </c>
       <c r="AC8" t="n">
-        <v>80.40579371321654</v>
+        <v>117.7662720580176</v>
       </c>
       <c r="AD8" t="n">
-        <v>64965.9361413805</v>
+        <v>95152.29881838887</v>
       </c>
       <c r="AE8" t="n">
-        <v>88889.25992342716</v>
+        <v>130191.5730664219</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.442538862879717e-06</v>
+        <v>7.693548853129265e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>80405.79371321654</v>
+        <v>117766.2720580176</v>
       </c>
     </row>
     <row r="9">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>65.09527973868536</v>
+        <v>95.28164241569374</v>
       </c>
       <c r="AB9" t="n">
-        <v>89.06623353949638</v>
+        <v>130.3685466824911</v>
       </c>
       <c r="AC9" t="n">
-        <v>80.5658772157522</v>
+        <v>117.9263555605533</v>
       </c>
       <c r="AD9" t="n">
-        <v>65095.27973868536</v>
+        <v>95281.64241569374</v>
       </c>
       <c r="AE9" t="n">
-        <v>89066.23353949637</v>
+        <v>130368.5466824911</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.436188342880927e-06</v>
+        <v>7.68255107970252e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>80565.87721575219</v>
+        <v>117926.3555605533</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.90784933585826</v>
+        <v>85.16860531943236</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.23207417530276</v>
+        <v>116.5314431716847</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.67027621894472</v>
+        <v>105.409845788317</v>
       </c>
       <c r="AD2" t="n">
-        <v>57907.84933585826</v>
+        <v>85168.60531943236</v>
       </c>
       <c r="AE2" t="n">
-        <v>79232.07417530275</v>
+        <v>116531.4431716847</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.898407579864999e-06</v>
+        <v>9.268841228057909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.774305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>71670.27621894472</v>
+        <v>105409.845788317</v>
       </c>
     </row>
     <row r="3">
@@ -6029,28 +6029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.95638360084511</v>
+        <v>74.10186348025501</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.56199266406701</v>
+        <v>101.3894387571375</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.25502353965753</v>
+        <v>91.71297302315268</v>
       </c>
       <c r="AD3" t="n">
-        <v>55956.38360084511</v>
+        <v>74101.86348025501</v>
       </c>
       <c r="AE3" t="n">
-        <v>76561.992664067</v>
+        <v>101389.4387571375</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.245122149379316e-06</v>
+        <v>9.924899802989973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.461805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>69255.02353965753</v>
+        <v>91712.97302315269</v>
       </c>
     </row>
     <row r="4">
@@ -6135,28 +6135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.44332889529914</v>
+        <v>73.58880877470905</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.86000858156321</v>
+        <v>100.6874546746337</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.62003583274681</v>
+        <v>91.07798531624199</v>
       </c>
       <c r="AD4" t="n">
-        <v>55443.32889529914</v>
+        <v>73588.80877470905</v>
       </c>
       <c r="AE4" t="n">
-        <v>75860.0085815632</v>
+        <v>100687.4546746337</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.333659923347613e-06</v>
+        <v>1.009243232375674e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.383680555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>68620.03583274681</v>
+        <v>91077.98531624199</v>
       </c>
     </row>
   </sheetData>
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.32439286611334</v>
+        <v>92.31774393260903</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.3256691632866</v>
+        <v>126.3132100199641</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.75072810632858</v>
+        <v>114.2580545373957</v>
       </c>
       <c r="AD2" t="n">
-        <v>73324.39286611334</v>
+        <v>92317.74393260904</v>
       </c>
       <c r="AE2" t="n">
-        <v>100325.6691632866</v>
+        <v>126313.2100199641</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.31203229830317e-06</v>
+        <v>7.855586382842319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.190972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>90750.72810632858</v>
+        <v>114258.0545373957</v>
       </c>
     </row>
     <row r="3">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.73224082072871</v>
+        <v>89.13679230307407</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.09653120825882</v>
+        <v>121.9608916667549</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.1659148964762</v>
+        <v>110.3211153392983</v>
       </c>
       <c r="AD3" t="n">
-        <v>60732.24082072871</v>
+        <v>89136.79230307408</v>
       </c>
       <c r="AE3" t="n">
-        <v>83096.53120825882</v>
+        <v>121960.8916667549</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.777348027347852e-06</v>
+        <v>8.703290586320612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>75165.9148964762</v>
+        <v>110321.1153392983</v>
       </c>
     </row>
     <row r="4">
@@ -6644,28 +6644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.61149835012832</v>
+        <v>78.6901007626446</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.56308191631591</v>
+        <v>107.6672674256426</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.77881585274622</v>
+        <v>97.39165453452561</v>
       </c>
       <c r="AD4" t="n">
-        <v>59611.49835012832</v>
+        <v>78690.10076264461</v>
       </c>
       <c r="AE4" t="n">
-        <v>81563.0819163159</v>
+        <v>107667.2674256426</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.925949023245403e-06</v>
+        <v>8.974009328457346e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.539930555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>73778.81585274622</v>
+        <v>97391.65453452562</v>
       </c>
     </row>
     <row r="5">
@@ -6750,28 +6750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.0655561494643</v>
+        <v>78.14415856198059</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.81609971209771</v>
+        <v>106.9202852214245</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.10312458170229</v>
+        <v>96.71596326348168</v>
       </c>
       <c r="AD5" t="n">
-        <v>59065.5561494643</v>
+        <v>78144.15856198058</v>
       </c>
       <c r="AE5" t="n">
-        <v>80816.09971209771</v>
+        <v>106920.2852214244</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.962035995362762e-06</v>
+        <v>9.039751954474942e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.505208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>73103.12458170229</v>
+        <v>96715.96326348168</v>
       </c>
     </row>
     <row r="6">
@@ -6856,28 +6856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.10596263059195</v>
+        <v>78.18456504310824</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.87138564218469</v>
+        <v>106.9755711515114</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.15313410021606</v>
+        <v>96.76597278199544</v>
       </c>
       <c r="AD6" t="n">
-        <v>59105.96263059195</v>
+        <v>78184.56504310823</v>
       </c>
       <c r="AE6" t="n">
-        <v>80871.38564218469</v>
+        <v>106975.5711515114</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.963376368612836e-06</v>
+        <v>9.04219382344131e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.505208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>73153.13410021606</v>
+        <v>96765.97278199544</v>
       </c>
     </row>
   </sheetData>
@@ -7153,28 +7153,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.7315439182216</v>
+        <v>71.42218470692764</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.51786885730354</v>
+        <v>97.72298404038875</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.501426636556</v>
+        <v>88.39643959866781</v>
       </c>
       <c r="AD2" t="n">
-        <v>53731.54391822161</v>
+        <v>71422.18470692764</v>
       </c>
       <c r="AE2" t="n">
-        <v>73517.86885730355</v>
+        <v>97722.98404038875</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.368838945399643e-06</v>
+        <v>1.052119449056425e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.522569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>66501.426636556</v>
+        <v>88396.43959866781</v>
       </c>
     </row>
     <row r="3">
@@ -7259,28 +7259,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.90233259442459</v>
+        <v>70.42238118253842</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.38330534186328</v>
+        <v>96.35500875010163</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.47514427065909</v>
+        <v>87.15902195011988</v>
       </c>
       <c r="AD3" t="n">
-        <v>52902.3325944246</v>
+        <v>70422.38118253842</v>
       </c>
       <c r="AE3" t="n">
-        <v>72383.30534186328</v>
+        <v>96355.00875010164</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.548913055875918e-06</v>
+        <v>1.087408172713514e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>65475.14427065909</v>
+        <v>87159.02195011987</v>
       </c>
     </row>
   </sheetData>
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.42559435004027</v>
+        <v>127.8674624740675</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.3019963035465</v>
+        <v>174.9539032712572</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.5798408668984</v>
+        <v>158.2565482924426</v>
       </c>
       <c r="AD2" t="n">
-        <v>97425.59435004026</v>
+        <v>127867.4624740675</v>
       </c>
       <c r="AE2" t="n">
-        <v>133301.9963035465</v>
+        <v>174953.9032712571</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.356311934918245e-06</v>
+        <v>5.774471609827664e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.189236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>120579.8408668984</v>
+        <v>158256.5482924426</v>
       </c>
     </row>
     <row r="3">
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.43846487142754</v>
+        <v>111.7949921408832</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.4277004485447</v>
+        <v>152.9628402940577</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.793197107524</v>
+        <v>138.3642815011294</v>
       </c>
       <c r="AD3" t="n">
-        <v>81438.46487142754</v>
+        <v>111794.9921408832</v>
       </c>
       <c r="AE3" t="n">
-        <v>111427.7004485447</v>
+        <v>152962.8402940577</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.887117388727343e-06</v>
+        <v>6.687712417832892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>100793.197107524</v>
+        <v>138364.2815011294</v>
       </c>
     </row>
     <row r="4">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.39339565668531</v>
+        <v>99.74489814526827</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.6295465268496</v>
+        <v>136.4753700766379</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.26209506888088</v>
+        <v>123.450352300945</v>
       </c>
       <c r="AD4" t="n">
-        <v>79393.39565668532</v>
+        <v>99744.89814526826</v>
       </c>
       <c r="AE4" t="n">
-        <v>108629.5465268496</v>
+        <v>136475.3700766379</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.112007374071222e-06</v>
+        <v>7.074631411324604e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>98262.09506888088</v>
+        <v>123450.352300945</v>
       </c>
     </row>
     <row r="5">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.25825860756335</v>
+        <v>98.70003722303957</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.39396076867244</v>
+        <v>135.0457452668347</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.48057223218039</v>
+        <v>122.157168876498</v>
       </c>
       <c r="AD5" t="n">
-        <v>68258.25860756334</v>
+        <v>98700.03722303957</v>
       </c>
       <c r="AE5" t="n">
-        <v>93393.96076867245</v>
+        <v>135045.7452668347</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.193272152771776e-06</v>
+        <v>7.214445935893432e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.956597222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>84480.57223218039</v>
+        <v>122157.168876498</v>
       </c>
     </row>
     <row r="6">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.46079338398351</v>
+        <v>97.90257199945975</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.30283366808843</v>
+        <v>133.9546181662507</v>
       </c>
       <c r="AC6" t="n">
-        <v>83.49358077066924</v>
+        <v>121.1701774149869</v>
       </c>
       <c r="AD6" t="n">
-        <v>67460.79338398352</v>
+        <v>97902.57199945975</v>
       </c>
       <c r="AE6" t="n">
-        <v>92302.83366808842</v>
+        <v>133954.6181662507</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.273986551640142e-06</v>
+        <v>7.35331354230411e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.861111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>83493.58077066924</v>
+        <v>121170.1774149869</v>
       </c>
     </row>
     <row r="7">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>66.9472603447449</v>
+        <v>97.38903896022114</v>
       </c>
       <c r="AB7" t="n">
-        <v>91.60019510832375</v>
+        <v>133.251979606486</v>
       </c>
       <c r="AC7" t="n">
-        <v>82.85800104888888</v>
+        <v>120.5345976932065</v>
       </c>
       <c r="AD7" t="n">
-        <v>66947.26034474491</v>
+        <v>97389.03896022114</v>
       </c>
       <c r="AE7" t="n">
-        <v>91600.19510832375</v>
+        <v>133251.979606486</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.313350674420593e-06</v>
+        <v>7.421038775789304e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>82858.00104888888</v>
+        <v>120534.5976932065</v>
       </c>
     </row>
     <row r="8">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>66.50682313898226</v>
+        <v>96.94860175445848</v>
       </c>
       <c r="AB8" t="n">
-        <v>90.99756949268144</v>
+        <v>132.6493539908437</v>
       </c>
       <c r="AC8" t="n">
-        <v>82.31288917621291</v>
+        <v>119.9894858205305</v>
       </c>
       <c r="AD8" t="n">
-        <v>66506.82313898226</v>
+        <v>96948.60175445848</v>
       </c>
       <c r="AE8" t="n">
-        <v>90997.56949268143</v>
+        <v>132649.3539908437</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.316389728276592e-06</v>
+        <v>7.426267410836489e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>82312.88917621291</v>
+        <v>119989.4858205305</v>
       </c>
     </row>
     <row r="9">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>66.1047750762811</v>
+        <v>96.54655369175732</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.44746959618527</v>
+        <v>132.0992540943475</v>
       </c>
       <c r="AC9" t="n">
-        <v>81.81529004176811</v>
+        <v>119.4918866860857</v>
       </c>
       <c r="AD9" t="n">
-        <v>66104.7750762811</v>
+        <v>96546.55369175732</v>
       </c>
       <c r="AE9" t="n">
-        <v>90447.46959618527</v>
+        <v>132099.2540943475</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.356328160447152e-06</v>
+        <v>7.494980732834538e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>81815.29004176811</v>
+        <v>119491.8866860857</v>
       </c>
     </row>
     <row r="10">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>66.06714383429872</v>
+        <v>96.50892244977494</v>
       </c>
       <c r="AB10" t="n">
-        <v>90.39598087073179</v>
+        <v>132.047765368894</v>
       </c>
       <c r="AC10" t="n">
-        <v>81.768715328007</v>
+        <v>119.4453119723246</v>
       </c>
       <c r="AD10" t="n">
-        <v>66067.14383429872</v>
+        <v>96508.92244977494</v>
       </c>
       <c r="AE10" t="n">
-        <v>90395.98087073179</v>
+        <v>132047.765368894</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.357883581712034e-06</v>
+        <v>7.497656805890186e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH10" t="n">
-        <v>81768.71532800701</v>
+        <v>119445.3119723246</v>
       </c>
     </row>
   </sheetData>
@@ -8701,28 +8701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.43638416631044</v>
+        <v>68.58608378613219</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.37753002943825</v>
+        <v>93.84250564061628</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.66079733892794</v>
+        <v>84.88630861108273</v>
       </c>
       <c r="AD2" t="n">
-        <v>51436.38416631044</v>
+        <v>68586.08378613219</v>
       </c>
       <c r="AE2" t="n">
-        <v>70377.53002943825</v>
+        <v>93842.50564061628</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.637675907802011e-06</v>
+        <v>1.130162550851769e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.409722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>63660.79733892794</v>
+        <v>84886.30861108273</v>
       </c>
     </row>
     <row r="3">
@@ -8807,28 +8807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.42572054387447</v>
+        <v>68.57542016369622</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.36293959077555</v>
+        <v>93.82791520195359</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.6475993912534</v>
+        <v>84.8731106634082</v>
       </c>
       <c r="AD3" t="n">
-        <v>51425.72054387447</v>
+        <v>68575.42016369622</v>
       </c>
       <c r="AE3" t="n">
-        <v>70362.93959077555</v>
+        <v>93827.91520195358</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.673043653298251e-06</v>
+        <v>1.137252582652389e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.383680555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>63647.5993912534</v>
+        <v>84873.1106634082</v>
       </c>
     </row>
   </sheetData>
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.06733089384156</v>
+        <v>108.510086126786</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.1834103333649</v>
+        <v>148.4682869657468</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.85853748754613</v>
+        <v>134.2986820343258</v>
       </c>
       <c r="AD2" t="n">
-        <v>79067.33089384156</v>
+        <v>108510.086126786</v>
       </c>
       <c r="AE2" t="n">
-        <v>108183.4103333649</v>
+        <v>148468.2869657468</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.869427750543107e-06</v>
+        <v>6.853044071392263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.581597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>97858.53748754613</v>
+        <v>134298.6820343258</v>
       </c>
     </row>
     <row r="3">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.19257562940022</v>
+        <v>94.54999000777305</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.19935806956413</v>
+        <v>129.3674675797484</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.68629652751176</v>
+        <v>117.0208180423526</v>
       </c>
       <c r="AD3" t="n">
-        <v>65192.57562940022</v>
+        <v>94549.99000777304</v>
       </c>
       <c r="AE3" t="n">
-        <v>89199.35806956413</v>
+        <v>129367.4675797484</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.368462374793394e-06</v>
+        <v>7.736871472655378e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>80686.29652751176</v>
+        <v>117020.8180423526</v>
       </c>
     </row>
     <row r="4">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.01964805532172</v>
+        <v>93.37706243369456</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.59450681679822</v>
+        <v>127.7626163269825</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.23461002588644</v>
+        <v>115.5691315407273</v>
       </c>
       <c r="AD4" t="n">
-        <v>64019.64805532173</v>
+        <v>93377.06243369456</v>
       </c>
       <c r="AE4" t="n">
-        <v>87594.50681679821</v>
+        <v>127762.6163269825</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.512632355726163e-06</v>
+        <v>7.99220722171165e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.782986111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>79234.61002588645</v>
+        <v>115569.1315407273</v>
       </c>
     </row>
     <row r="5">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.22087194119165</v>
+        <v>92.57828631956448</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.50158609793094</v>
+        <v>126.6696956081152</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.24599612650364</v>
+        <v>114.5805176413445</v>
       </c>
       <c r="AD5" t="n">
-        <v>63220.87194119165</v>
+        <v>92578.28631956449</v>
       </c>
       <c r="AE5" t="n">
-        <v>86501.58609793094</v>
+        <v>126669.6956081152</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.588212752977889e-06</v>
+        <v>8.126065721389468e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.704861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>78245.99612650364</v>
+        <v>114580.5176413445</v>
       </c>
     </row>
     <row r="6">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.37685190320415</v>
+        <v>91.73426628157699</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.34676064642088</v>
+        <v>125.5148701566052</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.20138559527764</v>
+        <v>113.5359071101185</v>
       </c>
       <c r="AD6" t="n">
-        <v>62376.85190320415</v>
+        <v>91734.26628157699</v>
       </c>
       <c r="AE6" t="n">
-        <v>85346.76064642088</v>
+        <v>125514.8701566052</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.671505435663465e-06</v>
+        <v>8.273583251646655e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.626736111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>77201.38559527764</v>
+        <v>113535.9071101185</v>
       </c>
     </row>
     <row r="7">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.23194476571551</v>
+        <v>91.58935914408835</v>
       </c>
       <c r="AB7" t="n">
-        <v>85.1484923080573</v>
+        <v>125.3166018182416</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.02203970885606</v>
+        <v>113.3565612236969</v>
       </c>
       <c r="AD7" t="n">
-        <v>62231.94476571551</v>
+        <v>91589.35914408835</v>
       </c>
       <c r="AE7" t="n">
-        <v>85148.49230805731</v>
+        <v>125316.6018182416</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.671505435663465e-06</v>
+        <v>8.273583251646655e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.626736111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>77022.03970885606</v>
+        <v>113356.5612236969</v>
       </c>
     </row>
   </sheetData>
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.84669364755302</v>
+        <v>112.8532687290295</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.3545011867075</v>
+        <v>154.4108210098268</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.536106687519</v>
+        <v>139.6740689696396</v>
       </c>
       <c r="AD2" t="n">
-        <v>82846.69364755302</v>
+        <v>112853.2687290295</v>
       </c>
       <c r="AE2" t="n">
-        <v>113354.5011867075</v>
+        <v>154410.8210098268</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.612276669379722e-06</v>
+        <v>6.299495090273544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>102536.106687519</v>
+        <v>139674.0689696396</v>
       </c>
     </row>
     <row r="3">
@@ -10037,28 +10037,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.1412417171581</v>
+        <v>98.14571461336014</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.9162942656562</v>
+        <v>134.2872966172841</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.71235319893056</v>
+        <v>121.4711055015709</v>
       </c>
       <c r="AD3" t="n">
-        <v>78141.24171715809</v>
+        <v>98145.71461336013</v>
       </c>
       <c r="AE3" t="n">
-        <v>106916.2942656562</v>
+        <v>134287.2966172841</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.134991685124125e-06</v>
+        <v>7.211064434672501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.121527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>96712.35319893056</v>
+        <v>121471.1055015709</v>
       </c>
     </row>
     <row r="4">
@@ -10143,28 +10143,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.76143963051372</v>
+        <v>96.68267385741862</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.34594700928143</v>
+        <v>132.2854997102031</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.62801803157961</v>
+        <v>119.6603572817615</v>
       </c>
       <c r="AD4" t="n">
-        <v>66761.43963051372</v>
+        <v>96682.67385741862</v>
       </c>
       <c r="AE4" t="n">
-        <v>91345.94700928143</v>
+        <v>132285.4997102031</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.278955259223472e-06</v>
+        <v>7.462124337117017e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>82628.01803157962</v>
+        <v>119660.3572817615</v>
       </c>
     </row>
     <row r="5">
@@ -10249,28 +10249,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.66410919152631</v>
+        <v>95.58534341843121</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.84453109185731</v>
+        <v>130.784083792779</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.26989514206352</v>
+        <v>118.3022343922453</v>
       </c>
       <c r="AD5" t="n">
-        <v>65664.10919152631</v>
+        <v>95585.34341843121</v>
       </c>
       <c r="AE5" t="n">
-        <v>89844.53109185731</v>
+        <v>130784.083792779</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.407927705982644e-06</v>
+        <v>7.687041022493576e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.800347222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>81269.89514206351</v>
+        <v>118302.2343922453</v>
       </c>
     </row>
     <row r="6">
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.15278757683845</v>
+        <v>95.07402180374335</v>
       </c>
       <c r="AB6" t="n">
-        <v>89.14491830072416</v>
+        <v>130.0844710016458</v>
       </c>
       <c r="AC6" t="n">
-        <v>80.63705241380315</v>
+        <v>117.669391663985</v>
       </c>
       <c r="AD6" t="n">
-        <v>65152.78757683845</v>
+        <v>95074.02180374335</v>
       </c>
       <c r="AE6" t="n">
-        <v>89144.91830072415</v>
+        <v>130084.4710016458</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.443418895262807e-06</v>
+        <v>7.748934557535772e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>80637.05241380315</v>
+        <v>117669.391663985</v>
       </c>
     </row>
     <row r="7">
@@ -10461,28 +10461,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>64.58258375076875</v>
+        <v>94.50381797767363</v>
       </c>
       <c r="AB7" t="n">
-        <v>88.36474027027856</v>
+        <v>129.3042929712002</v>
       </c>
       <c r="AC7" t="n">
-        <v>79.9313334795963</v>
+        <v>116.9636727297781</v>
       </c>
       <c r="AD7" t="n">
-        <v>64582.58375076875</v>
+        <v>94503.81797767364</v>
       </c>
       <c r="AE7" t="n">
-        <v>88364.74027027856</v>
+        <v>129304.2929712002</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.482225195629581e-06</v>
+        <v>7.816609356840153e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>79931.3334795963</v>
+        <v>116963.6727297781</v>
       </c>
     </row>
     <row r="8">
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>63.89730817237929</v>
+        <v>93.81854239928418</v>
       </c>
       <c r="AB8" t="n">
-        <v>87.42711599170174</v>
+        <v>128.3666686926234</v>
       </c>
       <c r="AC8" t="n">
-        <v>79.08319474620261</v>
+        <v>116.1155339963844</v>
       </c>
       <c r="AD8" t="n">
-        <v>63897.30817237929</v>
+        <v>93818.54239928418</v>
       </c>
       <c r="AE8" t="n">
-        <v>87427.11599170174</v>
+        <v>128366.6686926234</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.527783597253639e-06</v>
+        <v>7.896059231149128e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.670138888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>79083.19474620261</v>
+        <v>116115.5339963844</v>
       </c>
     </row>
   </sheetData>
@@ -10864,28 +10864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.2928857467779</v>
+        <v>132.219910372305</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.5933950054155</v>
+        <v>180.9091145020721</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.3662359031874</v>
+        <v>163.6434025215819</v>
       </c>
       <c r="AD2" t="n">
-        <v>101292.8857467779</v>
+        <v>132219.910372305</v>
       </c>
       <c r="AE2" t="n">
-        <v>138593.3950054155</v>
+        <v>180909.1145020721</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.165682495933656e-06</v>
+        <v>5.381450433115067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.449652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>125366.2359031875</v>
+        <v>163643.4025215819</v>
       </c>
     </row>
     <row r="3">
@@ -10970,28 +10970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.37707564712062</v>
+        <v>115.3893516186683</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.4484373542037</v>
+        <v>157.8808015035095</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.4302005260478</v>
+        <v>142.8128793951545</v>
       </c>
       <c r="AD3" t="n">
-        <v>84377.07564712063</v>
+        <v>115389.3516186683</v>
       </c>
       <c r="AE3" t="n">
-        <v>115448.4373542037</v>
+        <v>157880.8015035095</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.700523293691825e-06</v>
+        <v>6.290644341992664e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>104430.2005260478</v>
+        <v>142812.8793951545</v>
       </c>
     </row>
     <row r="4">
@@ -11076,28 +11076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.0910097996847</v>
+        <v>102.7659499559342</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.3205412076362</v>
+        <v>140.6089064433884</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.6008263976779</v>
+        <v>127.189389758309</v>
       </c>
       <c r="AD4" t="n">
-        <v>82091.0097996847</v>
+        <v>102765.9499559342</v>
       </c>
       <c r="AE4" t="n">
-        <v>112320.5412076362</v>
+        <v>140608.9064433884</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.925710750815853e-06</v>
+        <v>6.673448094494311e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.199652777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>101600.8263976779</v>
+        <v>127189.389758309</v>
       </c>
     </row>
     <row r="5">
@@ -11182,28 +11182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.04627809953062</v>
+        <v>101.7212182557801</v>
       </c>
       <c r="AB5" t="n">
-        <v>110.8910932051763</v>
+        <v>139.1794584409286</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.3078029063295</v>
+        <v>125.8963662669606</v>
       </c>
       <c r="AD5" t="n">
-        <v>81046.27809953062</v>
+        <v>101721.2182557801</v>
       </c>
       <c r="AE5" t="n">
-        <v>110891.0932051763</v>
+        <v>139179.4584409286</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.032998892544574e-06</v>
+        <v>6.855830824763618e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.060763888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>100307.8029063295</v>
+        <v>125896.3662669606</v>
       </c>
     </row>
     <row r="6">
@@ -11288,28 +11288,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>80.50825110161145</v>
+        <v>101.1831912578609</v>
       </c>
       <c r="AB6" t="n">
-        <v>110.1549409305477</v>
+        <v>138.4433061663</v>
       </c>
       <c r="AC6" t="n">
-        <v>99.64190797159505</v>
+        <v>125.2304713322261</v>
       </c>
       <c r="AD6" t="n">
-        <v>80508.25110161144</v>
+        <v>101183.1912578609</v>
       </c>
       <c r="AE6" t="n">
-        <v>110154.9409305477</v>
+        <v>138443.3061663</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.07471421607199e-06</v>
+        <v>6.926744110019643e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.008680555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>99641.90797159505</v>
+        <v>125230.4713322261</v>
       </c>
     </row>
     <row r="7">
@@ -11394,28 +11394,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>69.54548455053222</v>
+        <v>100.4724196675082</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.15520009224225</v>
+        <v>137.4707971193505</v>
       </c>
       <c r="AC7" t="n">
-        <v>86.07372134662417</v>
+        <v>124.3507771837921</v>
       </c>
       <c r="AD7" t="n">
-        <v>69545.48455053222</v>
+        <v>100472.4196675082</v>
       </c>
       <c r="AE7" t="n">
-        <v>95155.20009224226</v>
+        <v>137470.7971193505</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.115700168460462e-06</v>
+        <v>6.996417512679539e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.965277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>86073.72134662417</v>
+        <v>124350.7771837921</v>
       </c>
     </row>
     <row r="8">
@@ -11500,28 +11500,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>69.08091053932675</v>
+        <v>100.0078456563028</v>
       </c>
       <c r="AB8" t="n">
-        <v>94.51954943455237</v>
+        <v>136.8351464616606</v>
       </c>
       <c r="AC8" t="n">
-        <v>85.49873629556271</v>
+        <v>123.7757921327306</v>
       </c>
       <c r="AD8" t="n">
-        <v>69080.91053932675</v>
+        <v>100007.8456563028</v>
       </c>
       <c r="AE8" t="n">
-        <v>94519.54943455238</v>
+        <v>136835.1464616606</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.154874457052197e-06</v>
+        <v>7.063011206955503e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.913194444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>85498.7362955627</v>
+        <v>123775.7921327306</v>
       </c>
     </row>
     <row r="9">
@@ -11606,28 +11606,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>68.21448356290436</v>
+        <v>99.1414186798804</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.3340658213514</v>
+        <v>135.6496628484596</v>
       </c>
       <c r="AC9" t="n">
-        <v>84.42639357456855</v>
+        <v>122.7034494117365</v>
       </c>
       <c r="AD9" t="n">
-        <v>68214.48356290437</v>
+        <v>99141.4186798804</v>
       </c>
       <c r="AE9" t="n">
-        <v>93334.0658213514</v>
+        <v>135649.6628484596</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.201648322349719e-06</v>
+        <v>7.142523677958877e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.861111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>84426.39357456854</v>
+        <v>122703.4494117365</v>
       </c>
     </row>
     <row r="10">
@@ -11712,28 +11712,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>68.10026753238982</v>
+        <v>99.02720264936585</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.17779040954581</v>
+        <v>135.493387436654</v>
       </c>
       <c r="AC10" t="n">
-        <v>84.28503286873172</v>
+        <v>122.5620887058996</v>
       </c>
       <c r="AD10" t="n">
-        <v>68100.26753238981</v>
+        <v>99027.20264936585</v>
       </c>
       <c r="AE10" t="n">
-        <v>93177.79040954581</v>
+        <v>135493.387436654</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.202071828172332e-06</v>
+        <v>7.143243609788886e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.861111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>84285.03286873172</v>
+        <v>122562.0887058996</v>
       </c>
     </row>
     <row r="11">
@@ -11818,28 +11818,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>67.65445870760007</v>
+        <v>98.58139382457611</v>
       </c>
       <c r="AB11" t="n">
-        <v>92.56781510777155</v>
+        <v>134.8834121348798</v>
       </c>
       <c r="AC11" t="n">
-        <v>83.73327275365288</v>
+        <v>122.0103285908208</v>
       </c>
       <c r="AD11" t="n">
-        <v>67654.45870760008</v>
+        <v>98581.39382457611</v>
       </c>
       <c r="AE11" t="n">
-        <v>92567.81510777154</v>
+        <v>134883.4121348798</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.207906797283894e-06</v>
+        <v>7.153162670557918e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.852430555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>83733.27275365288</v>
+        <v>122010.3285908208</v>
       </c>
     </row>
   </sheetData>
@@ -12115,28 +12115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.98940657564279</v>
+        <v>94.20578880650157</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6038143758843</v>
+        <v>128.8965163110837</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.81145033723359</v>
+        <v>116.5948137017849</v>
       </c>
       <c r="AD2" t="n">
-        <v>74989.40657564279</v>
+        <v>94205.78880650157</v>
       </c>
       <c r="AE2" t="n">
-        <v>102603.8143758843</v>
+        <v>128896.5163110837</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.183613095737073e-06</v>
+        <v>7.544044421576224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>92811.45033723359</v>
+        <v>116594.8137017849</v>
       </c>
     </row>
     <row r="3">
@@ -12221,28 +12221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.47269050909289</v>
+        <v>91.21178873798286</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.47789125509868</v>
+        <v>124.7999933313776</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.32000128270624</v>
+        <v>112.8892571257545</v>
       </c>
       <c r="AD3" t="n">
-        <v>62472.69050909289</v>
+        <v>91211.78873798286</v>
       </c>
       <c r="AE3" t="n">
-        <v>85477.89125509869</v>
+        <v>124799.9933313776</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.604949955294606e-06</v>
+        <v>8.303814484488661e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.800347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>77320.00128270625</v>
+        <v>112889.2571257545</v>
       </c>
     </row>
     <row r="4">
@@ -12327,28 +12327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.18613564868863</v>
+        <v>89.92523387757861</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.71757013629986</v>
+        <v>123.0396722125788</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.7276827408588</v>
+        <v>111.2969385839071</v>
       </c>
       <c r="AD4" t="n">
-        <v>61186.13564868864</v>
+        <v>89925.2338775786</v>
       </c>
       <c r="AE4" t="n">
-        <v>83717.57013629985</v>
+        <v>123039.6722125788</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.765385297878496e-06</v>
+        <v>8.593117372577654e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>75727.6827408588</v>
+        <v>111296.9385839071</v>
       </c>
     </row>
     <row r="5">
@@ -12433,28 +12433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.36198553959941</v>
+        <v>79.66361911647874</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.58993159810781</v>
+        <v>108.9992781859565</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.70766444210081</v>
+        <v>98.59654005736434</v>
       </c>
       <c r="AD5" t="n">
-        <v>60361.98553959941</v>
+        <v>79663.61911647875</v>
       </c>
       <c r="AE5" t="n">
-        <v>82589.93159810781</v>
+        <v>108999.2781859565</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.847575639176828e-06</v>
+        <v>8.741326007456182e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>74707.66444210081</v>
+        <v>98596.54005736434</v>
       </c>
     </row>
     <row r="6">
@@ -12539,28 +12539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.12241137794464</v>
+        <v>79.42404495482398</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.26213566086584</v>
+        <v>108.6714822487145</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.41115288904463</v>
+        <v>98.30002850430817</v>
       </c>
       <c r="AD6" t="n">
-        <v>60122.41137794463</v>
+        <v>79424.04495482398</v>
       </c>
       <c r="AE6" t="n">
-        <v>82262.13566086584</v>
+        <v>108671.4822487145</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.877254777595488e-06</v>
+        <v>8.794844517294633e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH6" t="n">
-        <v>74411.15288904464</v>
+        <v>98300.02850430817</v>
       </c>
     </row>
   </sheetData>
@@ -12836,28 +12836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.7517521453447</v>
+        <v>87.42157278920143</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.75498334649161</v>
+        <v>119.6140526577311</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.95240247976136</v>
+        <v>108.1982553514857</v>
       </c>
       <c r="AD2" t="n">
-        <v>59751.7521453447</v>
+        <v>87421.57278920144</v>
       </c>
       <c r="AE2" t="n">
-        <v>81754.98334649162</v>
+        <v>119614.0526577311</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.712754117266806e-06</v>
+        <v>8.792492785190815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.887152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>73952.40247976137</v>
+        <v>108198.2553514857</v>
       </c>
     </row>
     <row r="3">
@@ -12942,28 +12942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.69989028766196</v>
+        <v>76.28867214118581</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.94753543105503</v>
+        <v>104.3815268422107</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.41289345309528</v>
+        <v>94.41950042080951</v>
       </c>
       <c r="AD3" t="n">
-        <v>57699.89028766196</v>
+        <v>76288.67214118582</v>
       </c>
       <c r="AE3" t="n">
-        <v>78947.53543105503</v>
+        <v>104381.5268422107</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.05733563388349e-06</v>
+        <v>9.435371752218149e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.548611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>71412.89345309528</v>
+        <v>94419.50042080952</v>
       </c>
     </row>
     <row r="4">
@@ -13048,28 +13048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.88956476012635</v>
+        <v>75.30775441305802</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.83881229524214</v>
+        <v>103.039391931551</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.40998529726131</v>
+        <v>93.20545698232452</v>
       </c>
       <c r="AD4" t="n">
-        <v>56889.56476012636</v>
+        <v>75307.75441305802</v>
       </c>
       <c r="AE4" t="n">
-        <v>77838.81229524214</v>
+        <v>103039.391931551</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.178320972473975e-06</v>
+        <v>9.661091721943122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>70409.98529726132</v>
+        <v>93205.45698232453</v>
       </c>
     </row>
     <row r="5">
@@ -13154,28 +13154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.94066613219533</v>
+        <v>75.35885578512699</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.90873144694031</v>
+        <v>103.1093110832491</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.47323146325358</v>
+        <v>93.26870314831677</v>
       </c>
       <c r="AD5" t="n">
-        <v>56940.66613219533</v>
+        <v>75358.85578512699</v>
       </c>
       <c r="AE5" t="n">
-        <v>77908.73144694031</v>
+        <v>103109.3110832491</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.177764169469284e-06</v>
+        <v>9.660052905514405e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>70473.23146325359</v>
+        <v>93268.70314831678</v>
       </c>
     </row>
   </sheetData>
@@ -23856,28 +23856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.92239463927642</v>
+        <v>82.73752172418253</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.51548746736158</v>
+        <v>113.2051273448268</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.2129567336552</v>
+        <v>102.4009888754598</v>
       </c>
       <c r="AD2" t="n">
-        <v>55922.39463927642</v>
+        <v>82737.52172418253</v>
       </c>
       <c r="AE2" t="n">
-        <v>76515.48746736159</v>
+        <v>113205.1273448268</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.110267020118948e-06</v>
+        <v>9.827232986826442e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.661458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>69212.9567336552</v>
+        <v>102400.9888754598</v>
       </c>
     </row>
     <row r="3">
@@ -23962,28 +23962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.37081185121863</v>
+        <v>72.21920579818321</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.39254344574039</v>
+        <v>98.81350345953302</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.29262350988623</v>
+        <v>89.38288137500291</v>
       </c>
       <c r="AD3" t="n">
-        <v>54370.81185121863</v>
+        <v>72219.2057981832</v>
       </c>
       <c r="AE3" t="n">
-        <v>74392.54344574039</v>
+        <v>98813.50345953302</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.400975924057638e-06</v>
+        <v>1.038627698963551e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.409722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>67292.62350988622</v>
+        <v>89382.88137500291</v>
       </c>
     </row>
     <row r="4">
@@ -24068,28 +24068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.28698481708316</v>
+        <v>72.13537876404774</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.27784759944858</v>
+        <v>98.6988076132412</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.18887407418781</v>
+        <v>89.27913193930451</v>
       </c>
       <c r="AD4" t="n">
-        <v>54286.98481708316</v>
+        <v>72135.37876404774</v>
       </c>
       <c r="AE4" t="n">
-        <v>74277.84759944858</v>
+        <v>98698.8076132412</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.444750941576851e-06</v>
+        <v>1.047045797166053e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>67188.87407418781</v>
+        <v>89279.13193930451</v>
       </c>
     </row>
   </sheetData>
@@ -24365,28 +24365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.50871127083272</v>
+        <v>66.22759342501718</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.74000293092082</v>
+        <v>90.61551507928904</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.27499212489964</v>
+        <v>81.96729749981785</v>
       </c>
       <c r="AD2" t="n">
-        <v>49508.71127083272</v>
+        <v>66227.59342501717</v>
       </c>
       <c r="AE2" t="n">
-        <v>67740.00293092082</v>
+        <v>90615.51507928903</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.781086234783603e-06</v>
+        <v>1.192406454460415e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.418402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>61274.99212489964</v>
+        <v>81967.29749981784</v>
       </c>
     </row>
   </sheetData>
@@ -24662,28 +24662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.32353015595518</v>
+        <v>111.0542080665169</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.2704417002737</v>
+        <v>151.9492668424235</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.6509469134739</v>
+        <v>137.4474420771595</v>
       </c>
       <c r="AD2" t="n">
-        <v>81323.53015595519</v>
+        <v>111054.2080665169</v>
       </c>
       <c r="AE2" t="n">
-        <v>111270.4417002737</v>
+        <v>151949.2668424235</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.709097661971843e-06</v>
+        <v>6.516738276431808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>100650.9469134739</v>
+        <v>137447.4420771595</v>
       </c>
     </row>
     <row r="3">
@@ -24768,28 +24768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.73283092849434</v>
+        <v>96.5533723774199</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.9892444899087</v>
+        <v>132.1085837208903</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.96921834914846</v>
+        <v>119.5003259061654</v>
       </c>
       <c r="AD3" t="n">
-        <v>76732.83092849434</v>
+        <v>96553.3723774199</v>
       </c>
       <c r="AE3" t="n">
-        <v>104989.2444899087</v>
+        <v>132108.5837208903</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.232107045619218e-06</v>
+        <v>7.435645131943376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>94969.21834914846</v>
+        <v>119500.3259061654</v>
       </c>
     </row>
     <row r="4">
@@ -24874,28 +24874,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.20677705482265</v>
+        <v>94.85211411081278</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.21878908634976</v>
+        <v>129.7808471063019</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.703873075327</v>
+        <v>117.3947452070738</v>
       </c>
       <c r="AD4" t="n">
-        <v>65206.77705482265</v>
+        <v>94852.11411081278</v>
       </c>
       <c r="AE4" t="n">
-        <v>89218.78908634976</v>
+        <v>129780.8471063019</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.420172790379259e-06</v>
+        <v>7.766069226711447e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.835069444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>80703.87307532699</v>
+        <v>117394.7452070738</v>
       </c>
     </row>
     <row r="5">
@@ -24980,28 +24980,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>64.56720825935666</v>
+        <v>94.2125453153468</v>
       </c>
       <c r="AB5" t="n">
-        <v>88.34370284460975</v>
+        <v>128.9057608645619</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.9123038363071</v>
+        <v>116.6031759680539</v>
       </c>
       <c r="AD5" t="n">
-        <v>64567.20825935666</v>
+        <v>94212.5453153468</v>
       </c>
       <c r="AE5" t="n">
-        <v>88343.70284460975</v>
+        <v>128905.7608645619</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.491642204836439e-06</v>
+        <v>7.891638168603278e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.756944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>79912.30383630711</v>
+        <v>116603.1759680539</v>
       </c>
     </row>
     <row r="6">
@@ -25086,28 +25086,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.86562065661743</v>
+        <v>93.51095771260758</v>
       </c>
       <c r="AB6" t="n">
-        <v>87.38375973468186</v>
+        <v>127.945817754634</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.04397634950182</v>
+        <v>115.7348484812486</v>
       </c>
       <c r="AD6" t="n">
-        <v>63865.62065661743</v>
+        <v>93510.95771260757</v>
       </c>
       <c r="AE6" t="n">
-        <v>87383.75973468187</v>
+        <v>127945.817754634</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.540412756004083e-06</v>
+        <v>7.977326103115065e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.704861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>79043.97634950181</v>
+        <v>115734.8484812486</v>
       </c>
     </row>
     <row r="7">
@@ -25192,28 +25192,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>63.14301173896008</v>
+        <v>92.78834879495022</v>
       </c>
       <c r="AB7" t="n">
-        <v>86.39505433428805</v>
+        <v>126.9571123542402</v>
       </c>
       <c r="AC7" t="n">
-        <v>78.14963160486452</v>
+        <v>114.8405037366113</v>
       </c>
       <c r="AD7" t="n">
-        <v>63143.01173896008</v>
+        <v>92788.34879495023</v>
       </c>
       <c r="AE7" t="n">
-        <v>86395.05433428804</v>
+        <v>126957.1123542402</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.579606454872782e-06</v>
+        <v>8.046187885923125e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.670138888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>78149.63160486452</v>
+        <v>114840.5037366113</v>
       </c>
     </row>
     <row r="8">
@@ -25298,28 +25298,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>62.78479101428223</v>
+        <v>92.43012807027237</v>
       </c>
       <c r="AB8" t="n">
-        <v>85.90492093520105</v>
+        <v>126.4669789551532</v>
       </c>
       <c r="AC8" t="n">
-        <v>77.70627584947968</v>
+        <v>114.3971479812265</v>
       </c>
       <c r="AD8" t="n">
-        <v>62784.79101428224</v>
+        <v>92430.12807027237</v>
       </c>
       <c r="AE8" t="n">
-        <v>85904.92093520105</v>
+        <v>126466.9789551532</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.621877548439084e-06</v>
+        <v>8.120456529818501e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.626736111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>77706.27584947969</v>
+        <v>114397.1479812265</v>
       </c>
     </row>
   </sheetData>
@@ -25595,28 +25595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.33802781793189</v>
+        <v>130.0264967891576</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.9186721449246</v>
+        <v>177.9079892710334</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.9467848385038</v>
+        <v>160.9287004704869</v>
       </c>
       <c r="AD2" t="n">
-        <v>99338.02781793188</v>
+        <v>130026.4967891576</v>
       </c>
       <c r="AE2" t="n">
-        <v>135918.6721449246</v>
+        <v>177907.9892710334</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.259271043106294e-06</v>
+        <v>5.572990262739064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.319444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>122946.7848385038</v>
+        <v>160928.7004704869</v>
       </c>
     </row>
     <row r="3">
@@ -25701,28 +25701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.64578251090148</v>
+        <v>113.2489106275556</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.0796057059672</v>
+        <v>154.9521557098786</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.2874468456423</v>
+        <v>140.1637394456866</v>
       </c>
       <c r="AD3" t="n">
-        <v>82645.78251090148</v>
+        <v>113248.9106275556</v>
       </c>
       <c r="AE3" t="n">
-        <v>113079.6057059672</v>
+        <v>154952.1557098785</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.816163610405813e-06</v>
+        <v>6.525214491379494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.399305555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>102287.4468456423</v>
+        <v>140163.7394456866</v>
       </c>
     </row>
     <row r="4">
@@ -25807,28 +25807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.83615484569559</v>
+        <v>101.3520578990775</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.6035932992957</v>
+        <v>138.6743569546828</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.0477415879574</v>
+        <v>125.4394709576475</v>
       </c>
       <c r="AD4" t="n">
-        <v>80836.15484569559</v>
+        <v>101352.0578990775</v>
       </c>
       <c r="AE4" t="n">
-        <v>110603.5932992957</v>
+        <v>138674.3569546828</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.00365283079297e-06</v>
+        <v>6.845800163993677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.147569444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>100047.7415879574</v>
+        <v>125439.4709576475</v>
       </c>
     </row>
     <row r="5">
@@ -25913,28 +25913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.88670313903489</v>
+        <v>100.4026061924168</v>
       </c>
       <c r="AB5" t="n">
-        <v>109.3045115873901</v>
+        <v>137.3752752427773</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.87264241136302</v>
+        <v>124.2643717810532</v>
       </c>
       <c r="AD5" t="n">
-        <v>79886.70313903489</v>
+        <v>100402.6061924168</v>
       </c>
       <c r="AE5" t="n">
-        <v>109304.5115873901</v>
+        <v>137375.2752427773</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.105641462761132e-06</v>
+        <v>7.020189358801772e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.017361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>98872.64241136302</v>
+        <v>124264.3717810532</v>
       </c>
     </row>
     <row r="6">
@@ -26019,28 +26019,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>68.93934183977228</v>
+        <v>99.62772130244694</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.32584889425185</v>
+        <v>136.3150435508124</v>
       </c>
       <c r="AC6" t="n">
-        <v>85.32352226296798</v>
+        <v>123.3053271137246</v>
       </c>
       <c r="AD6" t="n">
-        <v>68939.34183977229</v>
+        <v>99627.72130244694</v>
       </c>
       <c r="AE6" t="n">
-        <v>94325.84889425185</v>
+        <v>136315.0435508123</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.148723890221978e-06</v>
+        <v>7.093855508550897e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.965277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>85323.52226296798</v>
+        <v>123305.3271137246</v>
       </c>
     </row>
     <row r="7">
@@ -26125,28 +26125,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>68.33825066848166</v>
+        <v>99.0266301311563</v>
       </c>
       <c r="AB7" t="n">
-        <v>93.5034094354215</v>
+        <v>135.492604091982</v>
       </c>
       <c r="AC7" t="n">
-        <v>84.57957527178712</v>
+        <v>122.5613801225437</v>
       </c>
       <c r="AD7" t="n">
-        <v>68338.25066848166</v>
+        <v>99026.6301311563</v>
       </c>
       <c r="AE7" t="n">
-        <v>93503.4094354215</v>
+        <v>135492.604091982</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.195388612036673e-06</v>
+        <v>7.173646982425641e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.904513888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>84579.57527178712</v>
+        <v>122561.3801225437</v>
       </c>
     </row>
     <row r="8">
@@ -26231,28 +26231,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>67.83806820965185</v>
+        <v>98.5264476723265</v>
       </c>
       <c r="AB8" t="n">
-        <v>92.81903772875819</v>
+        <v>134.8082323853187</v>
       </c>
       <c r="AC8" t="n">
-        <v>83.96051904028582</v>
+        <v>121.9423238910424</v>
       </c>
       <c r="AD8" t="n">
-        <v>67838.06820965186</v>
+        <v>98526.4476723265</v>
       </c>
       <c r="AE8" t="n">
-        <v>92819.03772875819</v>
+        <v>134808.2323853187</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.233038288457579e-06</v>
+        <v>7.238023733335259e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.861111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>83960.51904028581</v>
+        <v>121942.3238910424</v>
       </c>
     </row>
     <row r="9">
@@ -26337,28 +26337,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>67.20881261844208</v>
+        <v>97.89719208111673</v>
       </c>
       <c r="AB9" t="n">
-        <v>91.95806246806801</v>
+        <v>133.9472571246285</v>
       </c>
       <c r="AC9" t="n">
-        <v>83.18171405008925</v>
+        <v>121.1635189008458</v>
       </c>
       <c r="AD9" t="n">
-        <v>67208.81261844208</v>
+        <v>97897.19208111672</v>
       </c>
       <c r="AE9" t="n">
-        <v>91958.062468068</v>
+        <v>133947.2571246285</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.276049544507423e-06</v>
+        <v>7.311568187903083e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>83181.71405008926</v>
+        <v>121163.5189008458</v>
       </c>
     </row>
     <row r="10">
@@ -26443,28 +26443,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>66.91528232448363</v>
+        <v>97.60366178715827</v>
       </c>
       <c r="AB10" t="n">
-        <v>91.55644137023162</v>
+        <v>133.5456360267921</v>
       </c>
       <c r="AC10" t="n">
-        <v>82.81842310615149</v>
+        <v>120.8002279569081</v>
       </c>
       <c r="AD10" t="n">
-        <v>66915.28232448363</v>
+        <v>97603.66178715827</v>
       </c>
       <c r="AE10" t="n">
-        <v>91556.44137023162</v>
+        <v>133545.6360267921</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.279275981806253e-06</v>
+        <v>7.31708503612218e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>82818.42310615149</v>
+        <v>120800.2279569081</v>
       </c>
     </row>
     <row r="11">
@@ -26549,28 +26549,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>66.99113545245328</v>
+        <v>97.67951491512792</v>
       </c>
       <c r="AB11" t="n">
-        <v>91.66022696632346</v>
+        <v>133.649421622884</v>
       </c>
       <c r="AC11" t="n">
-        <v>82.91230355061637</v>
+        <v>120.8941084013729</v>
       </c>
       <c r="AD11" t="n">
-        <v>66991.13545245328</v>
+        <v>97679.51491512792</v>
       </c>
       <c r="AE11" t="n">
-        <v>91660.22696632346</v>
+        <v>133649.421622884</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.278208410641199e-06</v>
+        <v>7.315259608402626e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>82912.30355061637</v>
+        <v>120894.1084013729</v>
       </c>
     </row>
   </sheetData>
@@ -26846,28 +26846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.27852699002229</v>
+        <v>63.63972477808819</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.68856640913098</v>
+        <v>87.0746790278555</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.51478042203042</v>
+        <v>78.76439387153738</v>
       </c>
       <c r="AD2" t="n">
-        <v>47278.52699002228</v>
+        <v>63639.72477808819</v>
       </c>
       <c r="AE2" t="n">
-        <v>64688.56640913099</v>
+        <v>87074.6790278555</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.797816444518888e-06</v>
+        <v>1.242739105955538e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.565972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>58514.78042203042</v>
+        <v>78764.39387153738</v>
       </c>
     </row>
   </sheetData>
@@ -27143,28 +27143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.15598600982165</v>
+        <v>89.9125634685312</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.35875923915083</v>
+        <v>123.0223359999412</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.06697590126718</v>
+        <v>111.2812569150721</v>
       </c>
       <c r="AD2" t="n">
-        <v>71155.98600982164</v>
+        <v>89912.56346853121</v>
       </c>
       <c r="AE2" t="n">
-        <v>97358.75923915082</v>
+        <v>123022.3359999412</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.513892349973831e-06</v>
+        <v>8.316542125548959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>88066.97590126719</v>
+        <v>111281.2569150721</v>
       </c>
     </row>
     <row r="3">
@@ -27249,28 +27249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.20924327365695</v>
+        <v>78.05107207838712</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.01269877444656</v>
+        <v>106.7929201878861</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.28096050546912</v>
+        <v>96.60075376998624</v>
       </c>
       <c r="AD3" t="n">
-        <v>59209.24327365695</v>
+        <v>78051.07207838712</v>
       </c>
       <c r="AE3" t="n">
-        <v>81012.69877444656</v>
+        <v>106792.9201878861</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.924911275295161e-06</v>
+        <v>9.073816766104468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>73280.96050546912</v>
+        <v>96600.75376998624</v>
       </c>
     </row>
     <row r="4">
@@ -27355,28 +27355,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.21687942029852</v>
+        <v>76.88811602443647</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.65490277027884</v>
+        <v>105.2017124088716</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.05275064626008</v>
+        <v>95.16140862812617</v>
       </c>
       <c r="AD4" t="n">
-        <v>58216.87942029852</v>
+        <v>76888.11602443647</v>
       </c>
       <c r="AE4" t="n">
-        <v>79654.90277027884</v>
+        <v>105201.7124088716</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.047529787566027e-06</v>
+        <v>9.299733102518366e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.496527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>72052.75064626009</v>
+        <v>95161.40862812617</v>
       </c>
     </row>
     <row r="5">
@@ -27461,28 +27461,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.98597286533264</v>
+        <v>76.6572094694706</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.33896623489643</v>
+        <v>104.8857758734891</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.76696665039476</v>
+        <v>94.87562463226085</v>
       </c>
       <c r="AD5" t="n">
-        <v>57985.97286533264</v>
+        <v>76657.2094694706</v>
       </c>
       <c r="AE5" t="n">
-        <v>79338.96623489643</v>
+        <v>104885.7758734891</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.080503272007927e-06</v>
+        <v>9.360484523049868e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.461805555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>71766.96665039477</v>
+        <v>94875.62463226085</v>
       </c>
     </row>
   </sheetData>
@@ -27758,28 +27758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.1082408628815</v>
+        <v>106.0789413849961</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.5028969240544</v>
+        <v>145.1418874754951</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.43384851589515</v>
+        <v>131.2897494427916</v>
       </c>
       <c r="AD2" t="n">
-        <v>77108.2408628815</v>
+        <v>106078.9413849961</v>
       </c>
       <c r="AE2" t="n">
-        <v>105502.8969240544</v>
+        <v>145141.8874754951</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.00905184091324e-06</v>
+        <v>7.161878540081419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.442708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>95433.84851589515</v>
+        <v>131289.7494427916</v>
       </c>
     </row>
     <row r="3">
@@ -27864,28 +27864,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.95386777942551</v>
+        <v>93.0098196475606</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.50450334129607</v>
+        <v>127.260138545386</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.15319635576554</v>
+        <v>115.1146095333742</v>
       </c>
       <c r="AD3" t="n">
-        <v>63953.86777942551</v>
+        <v>93009.81964756061</v>
       </c>
       <c r="AE3" t="n">
-        <v>87504.50334129608</v>
+        <v>127260.138545386</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.463286948470311e-06</v>
+        <v>7.973336410435001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>79153.19635576554</v>
+        <v>115114.6095333742</v>
       </c>
     </row>
     <row r="4">
@@ -27970,28 +27970,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.53340057945042</v>
+        <v>91.58935244758553</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.56095745170106</v>
+        <v>125.316592655791</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.39513975808906</v>
+        <v>113.3565529356977</v>
       </c>
       <c r="AD4" t="n">
-        <v>62533.40057945041</v>
+        <v>91589.35244758552</v>
       </c>
       <c r="AE4" t="n">
-        <v>85560.95745170106</v>
+        <v>125316.592655791</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.656532454160814e-06</v>
+        <v>8.318555403626352e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>77395.13975808906</v>
+        <v>113356.5529356977</v>
       </c>
     </row>
     <row r="5">
@@ -28076,28 +28076,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.73723330588509</v>
+        <v>81.25010264226121</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.47160626358838</v>
+        <v>111.1699749366444</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.40975471845552</v>
+        <v>100.5600685567593</v>
       </c>
       <c r="AD5" t="n">
-        <v>61737.23330588509</v>
+        <v>81250.1026422612</v>
       </c>
       <c r="AE5" t="n">
-        <v>84471.60626358839</v>
+        <v>111169.9749366444</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.732452128226674e-06</v>
+        <v>8.454180360857736e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.618055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>76409.75471845552</v>
+        <v>100560.0685567593</v>
       </c>
     </row>
     <row r="6">
@@ -28182,28 +28182,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>61.17900186907519</v>
+        <v>80.69187120545131</v>
       </c>
       <c r="AB6" t="n">
-        <v>83.70780938431258</v>
+        <v>110.4061780573686</v>
       </c>
       <c r="AC6" t="n">
-        <v>75.7188535413419</v>
+        <v>99.86916737964569</v>
       </c>
       <c r="AD6" t="n">
-        <v>61179.00186907519</v>
+        <v>80691.8712054513</v>
       </c>
       <c r="AE6" t="n">
-        <v>83707.80938431258</v>
+        <v>110406.1780573686</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.779417678750519e-06</v>
+        <v>8.53808088940346e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.565972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>75718.8535413419</v>
+        <v>99869.16737964569</v>
       </c>
     </row>
     <row r="7">
@@ -28288,28 +28288,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.28919989066221</v>
+        <v>80.80206922703833</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.85858717904146</v>
+        <v>110.5569558520975</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.85524131495987</v>
+        <v>100.0055551532637</v>
       </c>
       <c r="AD7" t="n">
-        <v>61289.19989066221</v>
+        <v>80802.06922703833</v>
       </c>
       <c r="AE7" t="n">
-        <v>83858.58717904147</v>
+        <v>110556.9558520975</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.776373848213087e-06</v>
+        <v>8.532643308281857e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.574652777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>75855.24131495987</v>
+        <v>100005.5551532637</v>
       </c>
     </row>
   </sheetData>
